--- a/cbdb_llm_eval.xlsx
+++ b/cbdb_llm_eval.xlsx
@@ -448,43 +448,43 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>甘荃(c_personid=309804)的籍貫是？</t>
+          <t>洪昕(c_personid=10159)的入仕方式是？</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>富順</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>孫瑞齡(c_personid=347421)的入仕方式是？</t>
+          <t>俞曰都(c_personid=374422)的籍貫是？</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>鎮海衛</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>王殿英(c_personid=638937)的入仕方式是？</t>
+          <t>傅謙受(c_personid=11185)的入仕方式是？</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>冷亨龍(c_personid=531199)的入仕方式是？</t>
+          <t>孟釗(c_personid=348031)的入仕方式是？</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -496,31 +496,31 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>袁應城(c_personid=655685)的入仕方式是？</t>
+          <t>趙不驚(c_personid=19402)的籍貫是？</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>鄞縣</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>侍其鈜(c_personid=14073)的入仕方式是？</t>
+          <t>嚴大翎(c_personid=597181)的籍貫是？</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>廣東省</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>余炳文(c_personid=374931)的入仕方式是？</t>
+          <t>玉麟(c_personid=341512)的入仕方式是？</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>李文靖(c_personid=620433)的入仕方式是？</t>
+          <t>梁之材(c_personid=625424)的入仕方式是？</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,43 +544,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>陳慶銜(c_personid=670556)的籍貫是？</t>
+          <t>黃延詐(c_personid=681627)的籍貫是？</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>廣州府</t>
+          <t>臺灣</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>徐維綱(c_personid=451987)的入仕方式是？</t>
+          <t>夏在庭(c_personid=597521)的入仕方式是？</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>江允汭(c_personid=354733)的籍貫是？</t>
+          <t>劉氏(江懋相妻)(c_personid=5410的籍貫是否為開封府？</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>順天府</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>王紀(c_personid=342412)的入仕方式是？</t>
+          <t>龍煥綸(c_personid=340143)的入仕方式是？</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,139 +592,139 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>孔紓(c_personid=92267)的籍貫是？</t>
+          <t>莫廷芬(c_personid=541219)的入仕方式是？</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>曲阜</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>杜憲(c_personid=363729)的入仕方式是？</t>
+          <t>焦沛霖(c_personid=634810的籍貫是否為奉天府？</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>翟通(c_personid=240709)的籍貫是？</t>
+          <t>陳福臻(c_personid=671734)的入仕方式是？</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>河南府</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>伍福屆(c_personid=581208)的入仕方式是？</t>
+          <t>蔣洪懿(c_personid=536710)的入仕方式是？</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>陳鎮(c_personid=275133)的籍貫是？</t>
+          <t>趙士揆(c_personid=220631的籍貫是否為寧國府？</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>鳳陽</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>董似穀(c_personid=360634)的籍貫是？</t>
+          <t>趙鴻謀(c_personid=661568的籍貫是否為紹興府？</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>順天府</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>江淑棨(c_personid=630481)的入仕方式是？</t>
+          <t>李延興(c_personid=28648的籍貫是否為順天府？</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>彭坊(c_personid=442694)的入仕方式是？</t>
+          <t>黃嘉(c_personid=34537)的籍貫是？</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>莆田</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>李道謙(c_personid=151664)的籍貫是？</t>
+          <t>鄭弘勣(c_personid=191359)的籍貫是？</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>贊皇</t>
+          <t>福州</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>蔡樟元(c_personid=652812)的籍貫是？</t>
+          <t>楊潮宗(c_personid=287149的籍貫是否為武昌府？</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>承德府</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>黃端卿(c_personid=27781)的入仕方式是？</t>
+          <t>俞世德(c_personid=200546)的籍貫是？</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>無錫</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>劉謙(c_personid=490226)的入仕方式是？</t>
+          <t>高載銘(c_personid=678779)的入仕方式是？</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -736,43 +736,43 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>朱塾(c_personid=3263)的入仕方式是？</t>
+          <t>張椿蔭(c_personid=607717)的入仕方式是？</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>詹軾(c_personid=132082)的籍貫是？</t>
+          <t>王選衆(c_personid=640403)的入仕方式是？</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>廣信府</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>武來雨(c_personid=629587)的入仕方式是？</t>
+          <t>王萬邦(c_personid=57202)的籍貫是？</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>陽高</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>韓宗厚(c_personid=3328)的入仕方式是？</t>
+          <t>陳彥先(c_personid=15068)的入仕方式是？</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,55 +784,55 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>蔡承賚(c_personid=223780)的籍貫是？</t>
+          <t>張奎光(c_personid=346192)的入仕方式是？</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>長沙府</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>劉登庸(c_personid=501870)的入仕方式是？</t>
+          <t>姚克濬(c_personid=597918的籍貫是否為杭州府？</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>張曉峰(c_personid=607541)的入仕方式是？</t>
+          <t>何蔭垣(c_personid=582307的籍貫是否為鳳翔府？</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>馬肇(c_personid=676844)的籍貫是？</t>
+          <t>楊襄(c_personid=28359)的入仕方式是？</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>漢陽府</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>彭現生(c_personid=359907)的入仕方式是？</t>
+          <t>周宗起(c_personid=373015)的入仕方式是？</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -844,43 +844,43 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>李英(c_personid=211812)的籍貫是？</t>
+          <t>陳燕泰(c_personid=671500)的入仕方式是？</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>永平衛</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>秦端(c_personid=150024)的籍貫是？</t>
+          <t>陳時南(c_personid=670886)的入仕方式是？</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>北芒山</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>朱由信(c_personid=15640)的入仕方式是？</t>
+          <t>馬體咸(c_personid=677058)的入仕方式是？</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>石繼曾(c_personid=13435)的入仕方式是？</t>
+          <t>蕭俶(c_personid=33114)的入仕方式是？</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -892,127 +892,127 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>胡仲舒(c_personid=43410)的入仕方式是？</t>
+          <t>魯逢甲(c_personid=679664)的入仕方式是？</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>林時謙(c_personid=254602)的籍貫是？</t>
+          <t>孫尚紱(c_personid=599965)的入仕方式是？</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>興化府</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>葉琚(c_personid=508237)的入仕方式是？</t>
+          <t>韓瑄(c_personid=17724)的入仕方式是？</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>顧忠賢(c_personid=675501)的籍貫是？</t>
+          <t>張誼(c_personid=204200的籍貫是否為紹興府？</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>新興</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>李貴昌(c_personid=358917)的籍貫是？</t>
+          <t>楊崇勳(c_personid=1997)的入仕方式是？</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>餘姚</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>周倬(c_personid=594041)的入仕方式是？</t>
+          <t>赫望嵋(c_personid=659738)的籍貫是？</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>文昌</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>梁戎(c_personid=337543)的籍貫是？</t>
+          <t>胡居仁(c_personid=42989)的入仕方式是？</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>東昌府</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>裴會(c_personid=169908)的籍貫是？</t>
+          <t>吉明(c_personid=359562)的入仕方式是？</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>明州</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>史衡(c_personid=590557)的籍貫是？</t>
+          <t>靳大文(c_personid=674270)的籍貫是？</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>丹徒</t>
+          <t>介休</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>陶天棟(c_personid=672894)的入仕方式是？</t>
+          <t>鄭億年(c_personid=15274的籍貫是否為開封府？</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>譚光褑(c_personid=658459)的入仕方式是？</t>
+          <t>徐士豪(c_personid=611146)的入仕方式是？</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1024,24 +1024,24 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>張一新(c_personid=572967)的入仕方式是？</t>
+          <t>傅貴早(c_personid=531984)的入仕方式是？</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>歐陽佑(c_personid=547931)的入仕方式是？</t>
+          <t>廖簡(c_personid=557005)的入仕方式是？</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>

--- a/cbdb_llm_eval.xlsx
+++ b/cbdb_llm_eval.xlsx
@@ -448,79 +448,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>洪昕(c_personid=10159)的入仕方式是？</t>
+          <t>顏之義(c_personid=32425)的籍貫是？</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>長安</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>俞曰都(c_personid=374422)的籍貫是？</t>
+          <t>朱廷桂(c_personid=62740的籍貫是否為東都指揮使司？</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>鎮海衛</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>傅謙受(c_personid=11185)的入仕方式是？</t>
+          <t>袁國鳳(c_personid=655539的籍貫是否為為州？</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>孟釗(c_personid=348031)的入仕方式是？</t>
+          <t>王有壬(c_personid=34586)的入仕方式是？</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>趙不驚(c_personid=19402)的籍貫是？</t>
+          <t>袁衡(c_personid=19396)的入仕方式是？</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>鄞縣</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>嚴大翎(c_personid=597181)的籍貫是？</t>
+          <t>李虛舟(c_personid=3505)的入仕方式是？</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>廣東省</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>玉麟(c_personid=341512)的入仕方式是？</t>
+          <t>胡景定(c_personid=365873)的入仕方式是？</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>梁之材(c_personid=625424)的入仕方式是？</t>
+          <t>衝有雅(c_personid=655421)的入仕方式是？</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,19 +544,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>黃延詐(c_personid=681627)的籍貫是？</t>
+          <t>沈邦本(c_personid=632676的籍貫是否為寧州？</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>臺灣</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>夏在庭(c_personid=597521)的入仕方式是？</t>
+          <t>陳同熙(c_personid=669471)的入仕方式是？</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -568,67 +568,67 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>劉氏(江懋相妻)(c_personid=5410的籍貫是否為開封府？</t>
+          <t>陳大典(c_personid=371817)的入仕方式是？</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>龍煥綸(c_personid=340143)的入仕方式是？</t>
+          <t>陳逸(c_personid=14542)的入仕方式是？</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>莫廷芬(c_personid=541219)的入仕方式是？</t>
+          <t>劉伸(c_personid=557888的籍貫是否為陽州？</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>焦沛霖(c_personid=634810的籍貫是否為奉天府？</t>
+          <t>陳邦光(c_personid=74)的入仕方式是？</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>陳福臻(c_personid=671734)的入仕方式是？</t>
+          <t>單瑞龍(c_personid=368518)的籍貫是？</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>錢塘</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>蔣洪懿(c_personid=536710)的入仕方式是？</t>
+          <t>陸壑(c_personid=48095)的入仕方式是？</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -640,103 +640,103 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>趙士揆(c_personid=220631的籍貫是否為寧國府？</t>
+          <t>林叢桂(c_personid=624091)的入仕方式是？</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>趙鴻謀(c_personid=661568的籍貫是否為紹興府？</t>
+          <t>李有普(c_personid=620769)的入仕方式是？</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>李延興(c_personid=28648的籍貫是否為順天府？</t>
+          <t>王文烱(c_personid=327293的籍貫是否為平州？</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>黃嘉(c_personid=34537)的籍貫是？</t>
+          <t>舒嘉猷(c_personid=90244的籍貫是否為慶州？</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>莆田</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>鄭弘勣(c_personid=191359)的籍貫是？</t>
+          <t>徐淮(c_personid=385952)的入仕方式是？</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>福州</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>楊潮宗(c_personid=287149的籍貫是否為武昌府？</t>
+          <t>張公邵(c_personid=26542)的入仕方式是？</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>俞世德(c_personid=200546)的籍貫是？</t>
+          <t>周春(c_personid=33209的籍貫是否為寧州？</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>無錫</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>高載銘(c_personid=678779)的入仕方式是？</t>
+          <t>王杲(c_personid=39477)的籍貫是？</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>齊州</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>張椿蔭(c_personid=607717)的入仕方式是？</t>
+          <t>胡永榮(c_personid=648279)的入仕方式是？</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,31 +748,31 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>王選衆(c_personid=640403)的入仕方式是？</t>
+          <t>呂弼康(c_personid=43017)的籍貫是？</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>餘干</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>王萬邦(c_personid=57202)的籍貫是？</t>
+          <t>易俊(c_personid=59256的籍貫是否為國州？</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>陽高</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>陳彥先(c_personid=15068)的入仕方式是？</t>
+          <t>徐子端(c_personid=27782)的入仕方式是？</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -784,67 +784,67 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>張奎光(c_personid=346192)的入仕方式是？</t>
+          <t>包景寧(c_personid=589572)的入仕方式是？</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>姚克濬(c_personid=597918的籍貫是否為杭州府？</t>
+          <t>劉運隆(c_personid=369916)的入仕方式是？</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>何蔭垣(c_personid=582307的籍貫是否為鳳翔府？</t>
+          <t>王鵬運(c_personid=54979)的入仕方式是？</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>楊襄(c_personid=28359)的入仕方式是？</t>
+          <t>胡鶴(c_personid=300994)的籍貫是？</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>歙縣</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>周宗起(c_personid=373015)的入仕方式是？</t>
+          <t>陳徽言(c_personid=82250的籍貫是否為川州？</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>陳燕泰(c_personid=671500)的入仕方式是？</t>
+          <t>孔羲仲(c_personid=126186)的入仕方式是？</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>陳時南(c_personid=670886)的入仕方式是？</t>
+          <t>陳宗鳳(c_personid=670003)的入仕方式是？</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,31 +868,31 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>馬體咸(c_personid=677058)的入仕方式是？</t>
+          <t>某徵(c_personid=555494)的入仕方式是？</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>蕭俶(c_personid=33114)的入仕方式是？</t>
+          <t>劉廷聞(c_personid=586841)的入仕方式是？</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>魯逢甲(c_personid=679664)的入仕方式是？</t>
+          <t>張淑躬(c_personid=608044)的入仕方式是？</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>孫尚紱(c_personid=599965)的入仕方式是？</t>
+          <t>李名瑚(c_personid=618707)的入仕方式是？</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -916,31 +916,31 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>韓瑄(c_personid=17724)的入仕方式是？</t>
+          <t>尹光楨(c_personid=602462)的籍貫是？</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>新城</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>張誼(c_personid=204200的籍貫是否為紹興府？</t>
+          <t>程再伊(c_personid=559998)的籍貫是？</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>鄱陽</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>楊崇勳(c_personid=1997)的入仕方式是？</t>
+          <t>吳公瑾(c_personid=593506)的入仕方式是？</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -952,96 +952,96 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>赫望嵋(c_personid=659738)的籍貫是？</t>
+          <t>辛本婺(c_personid=661823)的籍貫是？</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>文昌</t>
+          <t>蓬萊</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>胡居仁(c_personid=42989)的入仕方式是？</t>
+          <t>蔡雲吉(c_personid=493073)的入仕方式是？</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>吉明(c_personid=359562)的入仕方式是？</t>
+          <t>胡實(c_personid=11871)的入仕方式是？</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>靳大文(c_personid=674270)的籍貫是？</t>
+          <t>張曾垿(c_personid=347008)的入仕方式是？</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>介休</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>鄭億年(c_personid=15274的籍貫是否為開封府？</t>
+          <t>吳秉翰(c_personid=592604的籍貫是否為平府直轄地方？</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>徐士豪(c_personid=611146)的入仕方式是？</t>
+          <t>陳成務(c_personid=541971)的籍貫是？</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>晉江</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>傅貴早(c_personid=531984)的入仕方式是？</t>
+          <t>石萬寶(c_personid=643103)的籍貫是？</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>如皋</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>廖簡(c_personid=557005)的入仕方式是？</t>
+          <t>松壽(c_personid=366024)的入仕方式是？</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>進士</t>
         </is>
       </c>
     </row>

--- a/cbdb_llm_eval.xlsx
+++ b/cbdb_llm_eval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,103 +448,103 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>顏之義(c_personid=32425)的籍貫是？</t>
+          <t>馬際泰(c_personid=677027)的入仕方式是？</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>長安</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>朱廷桂(c_personid=62740的籍貫是否為東都指揮使司？</t>
+          <t>夏錫金(c_personid=344371)的入仕方式是？</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>袁國鳳(c_personid=655539的籍貫是否為為州？</t>
+          <t>鍾德浦(c_personid=667675)的入仕方式是？</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>王有壬(c_personid=34586)的入仕方式是？</t>
+          <t>悟勤善淳(c_personid=375984)的入仕方式是？</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>袁衡(c_personid=19396)的入仕方式是？</t>
+          <t>陳錡(c_personid=124113的籍貫是否為郵州？</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>李虛舟(c_personid=3505)的入仕方式是？</t>
+          <t>王禹功(c_personid=342115)的入仕方式是？</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>胡景定(c_personid=365873)的入仕方式是？</t>
+          <t>展毓(c_personid=198547的籍貫是否為騎右衛？</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>衝有雅(c_personid=655421)的入仕方式是？</t>
+          <t>潘之驤(c_personid=634068)的籍貫是？</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>仁和</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>沈邦本(c_personid=632676的籍貫是否為寧州？</t>
+          <t>盧庭琮(c_personid=348921的籍貫是否為國州？</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -556,307 +556,307 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>陳同熙(c_personid=669471)的入仕方式是？</t>
+          <t>程天秩(c_personid=7135)的入仕方式是？</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>陳大典(c_personid=371817)的入仕方式是？</t>
+          <t>吳洵武(c_personid=27040)的入仕方式是？</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>陳逸(c_personid=14542)的入仕方式是？</t>
+          <t>陳錡(c_personid=124113的籍貫是否為揚州府？</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>劉伸(c_personid=557888的籍貫是否為陽州？</t>
+          <t>謝顯光(c_personid=658370)的入仕方式是？</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>陳邦光(c_personid=74)的入仕方式是？</t>
+          <t>栗寬(c_personid=625265的籍貫是否為源州？</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>單瑞龍(c_personid=368518)的籍貫是？</t>
+          <t>袁世承(c_personid=655454)的入仕方式是？</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>錢塘</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>陸壑(c_personid=48095)的入仕方式是？</t>
+          <t>楊玉山(c_personid=118508)的籍貫是？</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>松江府</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>林叢桂(c_personid=624091)的入仕方式是？</t>
+          <t>沈文明(c_personid=223855的籍貫是否為蘇州府？</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>李有普(c_personid=620769)的入仕方式是？</t>
+          <t>童榮(c_personid=248616)的籍貫是？</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>蘭溪</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>王文烱(c_personid=327293的籍貫是否為平州？</t>
+          <t>胡永華(c_personid=648284)的籍貫是？</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>懷寧</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>舒嘉猷(c_personid=90244的籍貫是否為慶州？</t>
+          <t>王稷(c_personid=189639)的籍貫是？</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>河中府</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>徐淮(c_personid=385952)的入仕方式是？</t>
+          <t>張經(c_personid=320803的籍貫是否為揚州府？</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>張公邵(c_personid=26542)的入仕方式是？</t>
+          <t>袁一鰲(c_personid=550662)的入仕方式是？</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>周春(c_personid=33209的籍貫是否為寧州？</t>
+          <t>徐紹心(c_personid=319410)的籍貫是？</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>餘姚</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>王杲(c_personid=39477)的籍貫是？</t>
+          <t>夏士錦(c_personid=344320)的入仕方式是？</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>齊州</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>胡永榮(c_personid=648279)的入仕方式是？</t>
+          <t>樊廷茂(c_personid=44998)的入仕方式是？</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>呂弼康(c_personid=43017)的籍貫是？</t>
+          <t>嚴一介(c_personid=597117)的入仕方式是？</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>餘干</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>易俊(c_personid=59256的籍貫是否為國州？</t>
+          <t>胡順(c_personid=34481)的入仕方式是？</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>徐子端(c_personid=27782)的入仕方式是？</t>
+          <t>張經(c_personid=320803的籍貫是否為郵州？</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>包景寧(c_personid=589572)的入仕方式是？</t>
+          <t>徐榕(c_personid=13035)的入仕方式是？</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>劉運隆(c_personid=369916)的入仕方式是？</t>
+          <t>盧庭琮(c_personid=348921的籍貫是否為武昌府？</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>王鵬運(c_personid=54979)的入仕方式是？</t>
+          <t>王綺珍(c_personid=342339的籍貫是否為臨安府？</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>胡鶴(c_personid=300994)的籍貫是？</t>
+          <t>周熙有(c_personid=595264)的入仕方式是？</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>歙縣</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>陳徽言(c_personid=82250的籍貫是否為川州？</t>
+          <t>趙希府(c_personid=536746)的入仕方式是？</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>孔羲仲(c_personid=126186)的入仕方式是？</t>
+          <t>戴洪緒(c_personid=613079)的入仕方式是？</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>陳宗鳳(c_personid=670003)的入仕方式是？</t>
+          <t>彭萬涵(c_personid=610647)的入仕方式是？</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -868,180 +868,300 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>某徵(c_personid=555494)的入仕方式是？</t>
+          <t>陳鳳廷(c_personid=672711)的入仕方式是？</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>劉廷聞(c_personid=586841)的入仕方式是？</t>
+          <t>王珝(c_personid=342024的籍貫是否為平衛？</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>張淑躬(c_personid=608044)的入仕方式是？</t>
+          <t>劉錡(c_personid=24320)的入仕方式是？</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>李名瑚(c_personid=618707)的入仕方式是？</t>
+          <t>胡汝瀾(c_personid=648294的籍貫是否為陰廳？</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>尹光楨(c_personid=602462)的籍貫是？</t>
+          <t>譚顯相(c_personid=340256)的入仕方式是？</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>新城</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>程再伊(c_personid=559998)的籍貫是？</t>
+          <t>耿承祖(c_personid=105844)的入仕方式是？</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>鄱陽</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>吳公瑾(c_personid=593506)的入仕方式是？</t>
+          <t>龔聞道(c_personid=206928的籍貫是否為倉州？</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>辛本婺(c_personid=661823)的籍貫是？</t>
+          <t>齊棟(c_personid=682450)的入仕方式是？</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>蓬萊</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>蔡雲吉(c_personid=493073)的入仕方式是？</t>
+          <t>衛璜書(c_personid=655388)的籍貫是？</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>趙城</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>胡實(c_personid=11871)的入仕方式是？</t>
+          <t>展毓(c_personid=198547的籍貫是否為右軍都督府？</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>張曾垿(c_personid=347008)的入仕方式是？</t>
+          <t>張翕(c_personid=346964)的籍貫是？</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>山東省</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>吳秉翰(c_personid=592604的籍貫是否為平府直轄地方？</t>
+          <t>張燾(c_personid=64240)的入仕方式是？</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>陳成務(c_personid=541971)的籍貫是？</t>
+          <t>胡汝瀾(c_personid=648294的籍貫是否為興安府？</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>晉江</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>石萬寶(c_personid=643103)的籍貫是？</t>
+          <t>王珝(c_personid=342024的籍貫是否為後軍都督府？</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>如皋</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>松壽(c_personid=366024)的入仕方式是？</t>
+          <t>沈文明(c_personid=223855的籍貫是否為倉州？</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>龔聞道(c_personid=206928的籍貫是否為蘇州府？</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>蔡名載(c_personid=363279)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>進士</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>沈修文(c_personid=631676)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>舉人</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>葉得榕(c_personid=651043)的籍貫是？</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>湖南省</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>唐拱(c_personid=3829)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>恩蔭</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>王廣廉(c_personid=1843)的籍貫是？</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>洹水</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>栗寬(c_personid=625265的籍貫是否為大同府？</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>南宮鼎(c_personid=357302)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>進士</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>王綺珍(c_personid=342339的籍貫是否為屏州？</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>裴冕(c_personid=32838)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>

--- a/cbdb_llm_eval.xlsx
+++ b/cbdb_llm_eval.xlsx
@@ -448,55 +448,55 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>馬際泰(c_personid=677027)的入仕方式是？</t>
+          <t>李文淵(c_personid=7043)的入仕方式是？</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>夏錫金(c_personid=344371)的入仕方式是？</t>
+          <t>宋㬇(c_personid=1583)的入仕方式是？</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>鍾德浦(c_personid=667675)的入仕方式是？</t>
+          <t>閔肅(c_personid=373684)的入仕方式是？</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>悟勤善淳(c_personid=375984)的入仕方式是？</t>
+          <t>朱奇齡(c_personid=74182的籍貫是否為杭州府？</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>陳錡(c_personid=124113的籍貫是否為郵州？</t>
+          <t>俞嚴某(c_personid=279140的籍貫是否為州衛？</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,91 +508,91 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>王禹功(c_personid=342115)的入仕方式是？</t>
+          <t>曹昌宇(c_personid=615258)的籍貫是？</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>河間</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>展毓(c_personid=198547的籍貫是否為騎右衛？</t>
+          <t>梁紹東(c_personid=304304的籍貫是否為兗州府？</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>潘之驤(c_personid=634068)的籍貫是？</t>
+          <t>梁紹東(c_personid=304304的籍貫是否為平州？</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>仁和</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>盧庭琮(c_personid=348921的籍貫是否為國州？</t>
+          <t>劉篶(c_personid=588436)的入仕方式是？</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>程天秩(c_personid=7135)的入仕方式是？</t>
+          <t>趙崇探(c_personid=533463)的入仕方式是？</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>吳洵武(c_personid=27040)的入仕方式是？</t>
+          <t>俞嚴某(c_personid=279140的籍貫是否為中軍都督府？</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>陳錡(c_personid=124113的籍貫是否為揚州府？</t>
+          <t>何謙泰(c_personid=349099)的入仕方式是？</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>謝顯光(c_personid=658370)的入仕方式是？</t>
+          <t>李詵(c_personid=40586)的入仕方式是？</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -604,7 +604,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>栗寬(c_personid=625265的籍貫是否為源州？</t>
+          <t>陳世倌(c_personid=58702的籍貫是否為寧州？</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,31 +616,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>袁世承(c_personid=655454)的入仕方式是？</t>
+          <t>陳世倌(c_personid=58702的籍貫是否為杭州府？</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>楊玉山(c_personid=118508)的籍貫是？</t>
+          <t>戴嘉臣(c_personid=612892)的籍貫是？</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>松江府</t>
+          <t>浙江省</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>沈文明(c_personid=223855的籍貫是否為蘇州府？</t>
+          <t>趙文偉(c_personid=366085的籍貫是否為安順府？</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,91 +652,91 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>童榮(c_personid=248616)的籍貫是？</t>
+          <t>朱鴻祥(c_personid=617885)的入仕方式是？</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>蘭溪</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>胡永華(c_personid=648284)的籍貫是？</t>
+          <t>黃鮪(c_personid=48688)的入仕方式是？</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>懷寧</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>王稷(c_personid=189639)的籍貫是？</t>
+          <t>董思駉(c_personid=360708)的籍貫是？</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>河中府</t>
+          <t>武進</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>張經(c_personid=320803的籍貫是否為揚州府？</t>
+          <t>顏一龍(c_personid=24585)的入仕方式是？</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>袁一鰲(c_personid=550662)的入仕方式是？</t>
+          <t>李玠(c_personid=242437)的籍貫是？</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>番禺</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>徐紹心(c_personid=319410)的籍貫是？</t>
+          <t>張晉煜(c_personid=607480)的籍貫是？</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>餘姚</t>
+          <t>永平府</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>夏士錦(c_personid=344320)的入仕方式是？</t>
+          <t>鄒崇漢(c_personid=575013)的入仕方式是？</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>樊廷茂(c_personid=44998)的入仕方式是？</t>
+          <t>孫伯温(c_personid=546635)的入仕方式是？</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -748,19 +748,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>嚴一介(c_personid=597117)的入仕方式是？</t>
+          <t>顧允靖(c_personid=292344的籍貫是否為倉州？</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>胡順(c_personid=34481)的入仕方式是？</t>
+          <t>翟耆年(c_personid=10216)的入仕方式是？</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -772,163 +772,163 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>張經(c_personid=320803的籍貫是否為郵州？</t>
+          <t>章聰(c_personid=385108)的入仕方式是？</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>徐榕(c_personid=13035)的入仕方式是？</t>
+          <t>桑經邦(c_personid=625390)的入仕方式是？</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>盧庭琮(c_personid=348921的籍貫是否為武昌府？</t>
+          <t>胥茂諶(c_personid=7245)的籍貫是？</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>長沙</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>王綺珍(c_personid=342339的籍貫是否為臨安府？</t>
+          <t>史忠孫(c_personid=549708)的入仕方式是？</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>周熙有(c_personid=595264)的入仕方式是？</t>
+          <t>羅鳳彩(c_personid=82871的籍貫是否為屏州？</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>趙希府(c_personid=536746)的入仕方式是？</t>
+          <t>洪湘(c_personid=633068)的籍貫是？</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>上元</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>戴洪緒(c_personid=613079)的入仕方式是？</t>
+          <t>朱維慶(c_personid=217357的籍貫是否為安衛？</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>彭萬涵(c_personid=610647)的入仕方式是？</t>
+          <t>郭澄(c_personid=18012)的入仕方式是？</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>陳鳳廷(c_personid=672711)的入仕方式是？</t>
+          <t>何處信(c_personid=12740)的入仕方式是？</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>王珝(c_personid=342024的籍貫是否為平衛？</t>
+          <t>劉錫(c_personid=24321)的入仕方式是？</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>劉錡(c_personid=24320)的入仕方式是？</t>
+          <t>陳琨(c_personid=371211的籍貫是否為寧州？</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>胡汝瀾(c_personid=648294的籍貫是否為陰廳？</t>
+          <t>葛春漣(c_personid=651615)的籍貫是？</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>通州</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>譚顯相(c_personid=340256)的入仕方式是？</t>
+          <t>朱奇齡(c_personid=74182的籍貫是否為寧州？</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>耿承祖(c_personid=105844)的入仕方式是？</t>
+          <t>蔡漸(c_personid=3854)的入仕方式是？</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -940,19 +940,19 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>龔聞道(c_personid=206928的籍貫是否為倉州？</t>
+          <t>路峘(c_personid=90774)的籍貫是？</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>盩厔</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>齊棟(c_personid=682450)的入仕方式是？</t>
+          <t>李天章(c_personid=619120)的入仕方式是？</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -964,67 +964,67 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>衛璜書(c_personid=655388)的籍貫是？</t>
+          <t>張文煥(c_personid=345009)的入仕方式是？</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>趙城</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>展毓(c_personid=198547的籍貫是否為右軍都督府？</t>
+          <t>于知微(c_personid=31506)的入仕方式是？</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>張翕(c_personid=346964)的籍貫是？</t>
+          <t>于汧(c_personid=70735的籍貫是否為登州府？</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>山東省</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>張燾(c_personid=64240)的入仕方式是？</t>
+          <t>曹鑅(c_personid=615618)的入仕方式是？</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>胡汝瀾(c_personid=648294的籍貫是否為興安府？</t>
+          <t>鐘孔隸(c_personid=667914)的籍貫是？</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>平江</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>王珝(c_personid=342024的籍貫是否為後軍都督府？</t>
+          <t>陳琨(c_personid=371211的籍貫是否為杭州府？</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1036,43 +1036,43 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>沈文明(c_personid=223855的籍貫是否為倉州？</t>
+          <t>吳寶訥(c_personid=591735)的入仕方式是？</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>龔聞道(c_personid=206928的籍貫是否為蘇州府？</t>
+          <t>談官誥(c_personid=657333)的入仕方式是？</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>蔡名載(c_personid=363279)的入仕方式是？</t>
+          <t>趙文偉(c_personid=366085的籍貫是否為寧州？</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>沈修文(c_personid=631676)的入仕方式是？</t>
+          <t>曾豫謙(c_personid=90425)的入仕方式是？</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1084,43 +1084,43 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>葉得榕(c_personid=651043)的籍貫是？</t>
+          <t>林青陽(c_personid=624822)的入仕方式是？</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>湖南省</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>唐拱(c_personid=3829)的入仕方式是？</t>
+          <t>鄧德騏(c_personid=664999)的入仕方式是？</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>王廣廉(c_personid=1843)的籍貫是？</t>
+          <t>羅鳳彩(c_personid=82871的籍貫是否為臨安府？</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>洹水</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>栗寬(c_personid=625265的籍貫是否為大同府？</t>
+          <t>朱維慶(c_personid=217357的籍貫是否為中軍都督府？</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,19 +1132,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>南宮鼎(c_personid=357302)的入仕方式是？</t>
+          <t>顧允靖(c_personid=292344的籍貫是否為蘇州府？</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>王綺珍(c_personid=342339的籍貫是否為屏州？</t>
+          <t>于汧(c_personid=70735的籍貫是否為海州？</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,12 +1156,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>裴冕(c_personid=32838)的入仕方式是？</t>
+          <t>鄒嘉來(c_personid=79095)的入仕方式是？</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>進士</t>
         </is>
       </c>
     </row>

--- a/cbdb_llm_eval.xlsx
+++ b/cbdb_llm_eval.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,79 +448,79 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>李文淵(c_personid=7043)的入仕方式是？</t>
+          <t>楊蕃(c_personid=275459)的籍貫是？</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>淮安府</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>宋㬇(c_personid=1583)的入仕方式是？</t>
+          <t>溫純(c_personid=34732)的`致書Y`類型社會網路關係人為李世達？</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>閔肅(c_personid=373684)的入仕方式是？</t>
+          <t>戚明瑞(c_personid=45749)的`詩文跋由Y所作`類型社會網路關係人為方回(c_personid=27727)？</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>朱奇齡(c_personid=74182的籍貫是否為杭州府？</t>
+          <t>于弼(c_personid=31482)的入仕方式是？</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>俞嚴某(c_personid=279140的籍貫是否為州衛？</t>
+          <t>洪文衡(c_personid=128945)的`收到Y的答書`類型社會網路關係人為何喬遠(c_personid=128441)？</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>曹昌宇(c_personid=615258)的籍貫是？</t>
+          <t>鄧以伊(c_personid=664812的籍貫是否為安州？</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>河間</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>梁紹東(c_personid=304304的籍貫是否為兗州府？</t>
+          <t>劉清之(c_personid=13239)是否為李師愈(c_personid=41181)的老師？</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>梁紹東(c_personid=304304的籍貫是否為平州？</t>
+          <t>朱熹(c_personid=3257)的`門人為Y`類型社會網路關係人為黃孝？</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -544,43 +544,43 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>劉篶(c_personid=588436)的入仕方式是？</t>
+          <t>曾鞏(c_personid=7364)是否為陳師道(c_personid=3081)的學生？</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>趙崇探(c_personid=533463)的入仕方式是？</t>
+          <t>倪元璐(c_personid=30734)的`詩文序由Y所作`類型社會網路關係人為黃道周？</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>俞嚴某(c_personid=279140的籍貫是否為中軍都督府？</t>
+          <t>胡考祥(c_personid=648567)的入仕方式是？</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>何謙泰(c_personid=349099)的入仕方式是？</t>
+          <t>張成賓(c_personid=346623)的入仕方式是？</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -592,19 +592,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>李詵(c_personid=40586)的入仕方式是？</t>
+          <t>羅相(c_personid=540314)的入仕方式是？</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>陳世倌(c_personid=58702的籍貫是否為寧州？</t>
+          <t>魏了翁(c_personid=4001)的`為Y作祭文`類型社會網路關係人為宇文紹？</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,31 +616,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>陳世倌(c_personid=58702的籍貫是否為杭州府？</t>
+          <t>馮時可(c_personid=30243)的`被致書由Y`類型社會網路關係人為郭正？</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>戴嘉臣(c_personid=612892)的籍貫是？</t>
+          <t>林芳(c_personid=364102的籍貫是否為環廳？</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>趙文偉(c_personid=366085的籍貫是否為安順府？</t>
+          <t>吳天球(c_personid=41455)的`墓誌銘由Y所作`類型社會網路關係人為方岳(c_personid=21180)？</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -652,223 +652,223 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>朱鴻祥(c_personid=617885)的入仕方式是？</t>
+          <t>溫純(c_personid=34732)的`致書Y`類型社會網路關係人為李世？</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>黃鮪(c_personid=48688)的入仕方式是？</t>
+          <t>曾鞏(c_personid=7364)是否為陳師道(c_personid=3081)的老師？</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>董思駉(c_personid=360708)的籍貫是？</t>
+          <t>黃元規(c_personid=681437)的籍貫是？</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>武進</t>
+          <t>政和</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>顏一龍(c_personid=24585)的入仕方式是？</t>
+          <t>倪元璐(c_personid=30734)的`詩文序由Y所作`類型社會網路關係人為黃道？</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>李玠(c_personid=242437)的籍貫是？</t>
+          <t>李新(c_personid=24918, 字元應)的`致書Y`類型社會網路關係人為馮景(c_personid=34184, 字少渠)？</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>番禺</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>張晉煜(c_personid=607480)的籍貫是？</t>
+          <t>吳學寬(c_personid=591671)的籍貫是？</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>永平府</t>
+          <t>杭州府</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>鄒崇漢(c_personid=575013)的入仕方式是？</t>
+          <t>周必大(c_personid=7197, 字子充)的`從Y學`類型社會網路關係人為段玉裁(c_personid=58642, 字茂堂)？</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>孫伯温(c_personid=546635)的入仕方式是？</t>
+          <t>嚴嵩(c_personid=125411)的`被致書由Y`類型社會網路關係人為何良？</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>顧允靖(c_personid=292344的籍貫是否為倉州？</t>
+          <t>黃孝先(c_personid=3415)的`詩文序由Y所作`類型社會網路關係人為蘇軾(c_personid=3767)？</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>翟耆年(c_personid=10216)的入仕方式是？</t>
+          <t>楊簡(c_personid=15072)是否為李鶚(c_personid=41499)的老師？</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>章聰(c_personid=385108)的入仕方式是？</t>
+          <t>段瑞梅(c_personid=124764的籍貫是否為川州？</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>桑經邦(c_personid=625390)的入仕方式是？</t>
+          <t>柳開(c_personid=18341)是否為高弁(c_personid=43597)的老師？</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>胥茂諶(c_personid=7245)的籍貫是？</t>
+          <t>劉清之(c_personid=13239)是否為李師愈(c_personid=41181)的學生？</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>長沙</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>史忠孫(c_personid=549708)的入仕方式是？</t>
+          <t>趙抃(c_personid=375, 字閱道)的`答Y書`類型社會網路關係人為陳宏謀(c_personid=57786, 字汝咨)？</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>羅鳳彩(c_personid=82871的籍貫是否為屏州？</t>
+          <t>劉純(c_personid=487928)的入仕方式是？</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>舉人</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>洪湘(c_personid=633068)的籍貫是？</t>
+          <t>柳開(c_personid=18341)是否為高弁(c_personid=43597)的學生？</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>上元</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>朱維慶(c_personid=217357的籍貫是否為安衛？</t>
+          <t>陳逸(c_personid=14542)的入仕方式是？</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>郭澄(c_personid=18012)的入仕方式是？</t>
+          <t>羅洪先(c_personid=34702)的`致書Y`類型社會網路關係人為胡直(c_personid=34726)？</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>何處信(c_personid=12740)的入仕方式是？</t>
+          <t>吳順之(c_personid=4024)的入仕方式是？</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,187 +880,187 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>劉錫(c_personid=24321)的入仕方式是？</t>
+          <t>魏番昌(c_personid=679340)的籍貫是？</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>臨安</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>陳琨(c_personid=371211的籍貫是否為寧州？</t>
+          <t>張四維(c_personid=124070)的`贈詩、文`類型社會網路關係人為楊博(c_personid=69088)？</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>葛春漣(c_personid=651615)的籍貫是？</t>
+          <t>孫承宗(c_personid=63882)的`答Y書`類型社會網路關係人為李邦華？</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>通州</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>朱奇齡(c_personid=74182的籍貫是否為寧州？</t>
+          <t>袁繼忠(c_personid=44269)的入仕方式是？</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>否</t>
+          <t>恩蔭</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>蔡漸(c_personid=3854)的入仕方式是？</t>
+          <t>楊簡(c_personid=15072)是否為李鶚(c_personid=41499)的學生？</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>恩蔭</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>路峘(c_personid=90774)的籍貫是？</t>
+          <t>趙鶴齡(c_personid=84387的籍貫是否為慶州？</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>盩厔</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>李天章(c_personid=619120)的入仕方式是？</t>
+          <t>張栻(c_personid=7164)是否為范仲黼(c_personid=10829)的老師？</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>張文煥(c_personid=345009)的入仕方式是？</t>
+          <t>陸大星(c_personid=225911的籍貫是否為蘇州府？</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>于知微(c_personid=31506)的入仕方式是？</t>
+          <t>李{亻雚}(c_personid=174772)的籍貫是？</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>進士</t>
+          <t>贊皇</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>于汧(c_personid=70735的籍貫是否為登州府？</t>
+          <t>洪天錫(c_personid=10072)是否為丘葵(c_personid=35557)的學生？</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>曹鑅(c_personid=615618)的入仕方式是？</t>
+          <t>程珌(c_personid=10755, 字懷古)的`致書Y`類型社會網路關係人為秦松齡(c_personid=85724, 字留仙)？</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>鐘孔隸(c_personid=667914)的籍貫是？</t>
+          <t>唐仲友(c_personid=10010)是否為傅寅(c_personid=49048)的學生？</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>平江</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>陳琨(c_personid=371211的籍貫是否為杭州府？</t>
+          <t>胥天錫(c_personid=534568)的入仕方式是？</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>吳寶訥(c_personid=591735)的入仕方式是？</t>
+          <t>張汴(c_personid=45713, 字朝宗)的`為Y所辟`類型社會網路關係人為錢楷(c_personid=29761, 字裴山)？</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>談官誥(c_personid=657333)的入仕方式是？</t>
+          <t>盧雄(c_personid=272342的籍貫是否為成都府？</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>是</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>趙文偉(c_personid=366085的籍貫是否為寧州？</t>
+          <t>王同治(c_personid=71549的籍貫是否為寧州？</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1072,31 +1072,31 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>曾豫謙(c_personid=90425)的入仕方式是？</t>
+          <t>陸仁恬(c_personid=61884)的入仕方式是？</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>進士</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>林青陽(c_personid=624822)的入仕方式是？</t>
+          <t>蕭楚(c_personid=13192)是否為胡昌齡(c_personid=13144)的學生？</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>舉人</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>鄧德騏(c_personid=664999)的入仕方式是？</t>
+          <t>宋準(c_personid=506909)的入仕方式是？</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>羅鳳彩(c_personid=82871的籍貫是否為臨安府？</t>
+          <t>朱熹(c_personid=3257)是否為吳必大(c_personid=41534)的老師？</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1120,19 +1120,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>朱維慶(c_personid=217357的籍貫是否為中軍都督府？</t>
+          <t>紀昀(c_personid=30080)的`門人為Y`類型社會網路關係人為葛正？</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>是</t>
+          <t>否</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>顧允靖(c_personid=292344的籍貫是否為蘇州府？</t>
+          <t>白奐彩(c_personid=124084)的`為Y之學生`類型社會網路關係人為馮從吾(c_personid=34744)？</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1144,7 +1144,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>于汧(c_personid=70735的籍貫是否為海州？</t>
+          <t>朱熹(c_personid=3257)是否為吳必大(c_personid=41534)的學生？</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,12 +1156,732 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>鄒嘉來(c_personid=79095)的入仕方式是？</t>
+          <t>楊浩(c_personid=628031)的入仕方式是？</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>舉人</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>鄭穆(c_personid=7187, 字閎中)的`被Y推薦`類型社會網路關係人為陶正靖(c_personid=34897, 字穉裘)？</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>洪天錫(c_personid=10072)是否為丘葵(c_personid=35557)的老師？</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>張栻(c_personid=7164)是否為范仲黼(c_personid=10829)的學生？</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>李純德(c_personid=3476, 字得之)的`墓誌銘由Y所作`類型社會網路關係人為姚瑩(c_personid=35103, 字石甫)？</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>朱熹(c_personid=3257)是否為蔣康國(c_personid=51572)的老師？</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>葉士模(c_personid=650934)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>舉人</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>馮詠護(c_personid=677708)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>恩蔭</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>曾省吾(c_personid=125312)的`被致書由Y`類型社會網路關係人為張居正(c_personid=69011)？</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>段瑞梅(c_personid=124764的籍貫是否為麗江府？</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>湛若水(c_personid=131191)的`致書Y`類型社會網路關係人為呂懷(c_personid=68453)？</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>許一鳴(c_personid=45390)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>進士</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>王簪(c_personid=328173的籍貫是否為荊州府？</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>齊麟(c_personid=338889)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>進士</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>潘祖年(c_personid=634525)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>恩蔭</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>紀昀(c_personid=30080)的`門人為Y`類型社會網路關係人為葛正華？</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>張寰(c_personid=130638)的`墓表由Y所作`類型社會網路關係人為歸有光？</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>平震(c_personid=604015)的籍貫是？</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>大興</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>周楙(c_personid=11561)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>恩蔭</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>歐陽齊(c_personid=373939)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>進士</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>馮時可(c_personid=30243)的`被致書由Y`類型社會網路關係人為郭正域？</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>魏了翁(c_personid=4001)的`為Y作祭文`類型社會網路關係人為宇文紹節？</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>朱體元(c_personid=617855)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>舉人</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>唐仲友(c_personid=10010)是否為傅寅(c_personid=49048)的老師？</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>龍振澍(c_personid=280550的籍貫是否為陵州？</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>孫承宗(c_personid=63882)的`答Y書`類型社會網路關係人為李邦？</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>李石(c_personid=10830, 字知幾)的`友`類型社會網路關係人為全祖望(c_personid=30192, 字紹衣)？</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>鄧以伊(c_personid=664812的籍貫是否為順慶府？</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>宗舉賢(c_personid=339440)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>進士</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>章大佳(c_personid=644840)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>舉人</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>劉元恭(c_personid=585907)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>舉人</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>王如暄(c_personid=636969)的籍貫是？</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>黃岡</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>王同治(c_personid=71549的籍貫是否為杭州府？</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>史彌遠(c_personid=3727)的`門客為Y`類型社會網路關係人為衛涇(c_personid=12066)？</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>翟延初(c_personid=348214)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>進士</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>黃孝復(c_personid=681562)的籍貫是？</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>長沙</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>盧雄(c_personid=272342的籍貫是否為慶州？</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>趙鶴齡(c_personid=84387的籍貫是否為麗江府？</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>宮卜萬(c_personid=85370的籍貫是否為登州府？</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>鄭文霦(c_personid=665859)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>舉人</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>湯宋彥(c_personid=3820)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>恩蔭</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>朱熹(c_personid=3257)的`門人為Y`類型社會網路關係人為黃孝恭？</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>馬興祖(c_personid=106121)的籍貫是？</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>成都路</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>林芳(c_personid=364102的籍貫是否為溫州府？</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>胡謙(c_personid=43134, 字牧之)的`為Y之學生`類型社會網路關係人為朱彜尊(c_personid=66032, 字秀鬯)？</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>嚴嵩(c_personid=125411)的`被致書由Y`類型社會網路關係人為何良俊？</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>曹溶(c_personid=34911)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>進士</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>翟耆年(c_personid=10216)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>恩蔭</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>呂宣問(c_personid=20653)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>恩蔭</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>宮卜萬(c_personid=85370的籍貫是否為海州？</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>李晧(c_personid=174523)的籍貫是？</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>贊皇</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>朱熹(c_personid=3257)是否為蔣康國(c_personid=51572)的學生？</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>張寰(c_personid=130638)的`墓表由Y所作`類型社會網路關係人為歸有？</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>蕭楚(c_personid=13192)是否為胡昌齡(c_personid=13144)的老師？</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>錢大昕(c_personid=29876)的`同僚`類型社會網路關係人為曹秀先？</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>梅守極(c_personid=229980)的入仕方式是？</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>舉人</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>陸大星(c_personid=225911的籍貫是否為倉州？</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>龍振澍(c_personid=280550的籍貫是否為長沙府？</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>是</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>錢大昕(c_personid=29876)的`同僚`類型社會網路關係人為曹秀？</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>趙汝騰(c_personid=10948, 字茂實)的`臨別得到Y所作贈言(送別詩、序)`類型社會網路關係人為顧棟高(c_personid=66061, 字復祁)？</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>否</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>王簪(c_personid=328173的籍貫是否為陵州？</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>否</t>
         </is>
       </c>
     </row>
